--- a/API명세서.xlsx
+++ b/API명세서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" tabRatio="873" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255" tabRatio="873"/>
   </bookViews>
   <sheets>
     <sheet name="order_admin member" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="order_admin order" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="398">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2390,19 +2391,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2413,6 +2423,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2426,26 +2445,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2465,10 +2475,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2477,38 +2499,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2522,38 +2538,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2838,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2861,37 +2862,37 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
@@ -2914,42 +2915,42 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
@@ -2971,37 +2972,37 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
@@ -3024,14 +3025,14 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
@@ -3144,34 +3145,34 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
@@ -3180,14 +3181,14 @@
       <c r="C28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27" t="s">
+      <c r="E28" s="29"/>
+      <c r="F28" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="27"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
@@ -3196,14 +3197,14 @@
       <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="36"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
@@ -3212,34 +3213,34 @@
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="36"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
@@ -3248,37 +3249,37 @@
       <c r="B34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
@@ -3301,14 +3302,14 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
@@ -3367,34 +3368,34 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
@@ -3403,14 +3404,14 @@
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="27" t="s">
+      <c r="D45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27" t="s">
+      <c r="E45" s="29"/>
+      <c r="F45" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="27"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="5" t="s">
@@ -3419,14 +3420,14 @@
       <c r="C46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="36" t="s">
+      <c r="E46" s="36"/>
+      <c r="F46" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="36"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B47" s="5" t="s">
@@ -3435,34 +3436,34 @@
       <c r="C47" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36" t="s">
+      <c r="E47" s="31"/>
+      <c r="F47" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="36"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
@@ -3471,37 +3472,37 @@
       <c r="B51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="29" t="s">
+      <c r="C52" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -3524,14 +3525,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="39"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="28"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
@@ -3562,32 +3563,32 @@
       <c r="G57" s="5"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
@@ -3596,14 +3597,14 @@
       <c r="C61" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27" t="s">
+      <c r="E61" s="29"/>
+      <c r="F61" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="27"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" s="5" t="s">
@@ -3612,14 +3613,14 @@
       <c r="C62" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="28"/>
-      <c r="F62" s="36" t="s">
+      <c r="E62" s="36"/>
+      <c r="F62" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G62" s="36"/>
+      <c r="G62" s="31"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" s="5" t="s">
@@ -3628,34 +3629,34 @@
       <c r="C63" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="36" t="s">
+      <c r="D63" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36" t="s">
+      <c r="E63" s="31"/>
+      <c r="F63" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G63" s="36"/>
+      <c r="G63" s="31"/>
     </row>
     <row r="64" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" ht="274.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
@@ -3664,37 +3665,37 @@
       <c r="B67" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="29"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C69" s="30" t="s">
+      <c r="C69" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="34"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B70" s="3" t="s">
@@ -3717,14 +3718,14 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="27" t="s">
+      <c r="B71" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B72" s="3" t="s">
@@ -3765,32 +3766,32 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B77" s="3" t="s">
@@ -3799,14 +3800,14 @@
       <c r="C77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27" t="s">
+      <c r="E77" s="29"/>
+      <c r="F77" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G77" s="27"/>
+      <c r="G77" s="29"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B78" s="5" t="s">
@@ -3815,14 +3816,14 @@
       <c r="C78" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="28"/>
-      <c r="F78" s="36" t="s">
+      <c r="E78" s="36"/>
+      <c r="F78" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="36"/>
+      <c r="G78" s="31"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B79" s="5" t="s">
@@ -3831,34 +3832,34 @@
       <c r="C79" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36" t="s">
+      <c r="E79" s="31"/>
+      <c r="F79" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G79" s="36"/>
+      <c r="G79" s="31"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
     </row>
     <row r="81" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
@@ -3867,37 +3868,37 @@
       <c r="B83" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C84" s="29" t="s">
+      <c r="C84" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="C85" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
@@ -3920,14 +3921,14 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B87" s="27" t="s">
+      <c r="B87" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
@@ -4020,34 +4021,34 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
     </row>
     <row r="95" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="27" t="s">
+      <c r="B95" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
@@ -4056,14 +4057,14 @@
       <c r="C96" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27" t="s">
+      <c r="E96" s="29"/>
+      <c r="F96" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G96" s="27"/>
+      <c r="G96" s="29"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
@@ -4072,14 +4073,14 @@
       <c r="C97" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E97" s="28"/>
-      <c r="F97" s="36" t="s">
+      <c r="E97" s="36"/>
+      <c r="F97" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G97" s="36"/>
+      <c r="G97" s="31"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B98" s="5" t="s">
@@ -4088,34 +4089,34 @@
       <c r="C98" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="36" t="s">
+      <c r="D98" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36" t="s">
+      <c r="E98" s="31"/>
+      <c r="F98" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G98" s="36"/>
+      <c r="G98" s="31"/>
     </row>
     <row r="99" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
     </row>
     <row r="100" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="26" t="s">
+      <c r="B100" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="35"/>
+      <c r="G100" s="35"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
@@ -4124,37 +4125,37 @@
       <c r="B102" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C102" s="24" t="s">
+      <c r="C102" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
+      <c r="D102" s="35"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="29" t="s">
+      <c r="C103" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C104" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
@@ -4177,14 +4178,14 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
@@ -4261,34 +4262,34 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B111" s="27" t="s">
+      <c r="B111" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="26" t="s">
+      <c r="B112" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B113" s="27" t="s">
+      <c r="B113" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
@@ -4297,14 +4298,14 @@
       <c r="C114" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D114" s="27" t="s">
+      <c r="D114" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27" t="s">
+      <c r="E114" s="29"/>
+      <c r="F114" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G114" s="27"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="5" t="s">
@@ -4313,14 +4314,14 @@
       <c r="C115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E115" s="28"/>
-      <c r="F115" s="36" t="s">
+      <c r="E115" s="36"/>
+      <c r="F115" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G115" s="36"/>
+      <c r="G115" s="31"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="5" t="s">
@@ -4329,37 +4330,119 @@
       <c r="C116" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="36" t="s">
+      <c r="D116" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36" t="s">
+      <c r="E116" s="31"/>
+      <c r="F116" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G116" s="36"/>
+      <c r="G116" s="31"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B117" s="27" t="s">
+      <c r="B117" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C117" s="27"/>
-      <c r="D117" s="27"/>
-      <c r="E117" s="27"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="29"/>
+      <c r="F117" s="29"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="2:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="24"/>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24"/>
+      <c r="C118" s="35"/>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="F115:G115"/>
     <mergeCell ref="B55:G55"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
@@ -4376,88 +4459,6 @@
     <mergeCell ref="B100:G100"/>
     <mergeCell ref="C102:G102"/>
     <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4478,8 +4479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G98"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4512,37 +4513,37 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -4565,14 +4566,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -4647,32 +4648,32 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
@@ -4681,40 +4682,40 @@
       <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -4723,37 +4724,37 @@
       <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
@@ -4776,14 +4777,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
@@ -4844,32 +4845,32 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
@@ -4878,14 +4879,14 @@
       <c r="C32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27" t="s">
+      <c r="E32" s="29"/>
+      <c r="F32" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="27"/>
+      <c r="G32" s="29"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B33" s="5" t="s">
@@ -4894,14 +4895,14 @@
       <c r="C33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="36" t="s">
+      <c r="E33" s="36"/>
+      <c r="F33" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="36"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
@@ -4910,10 +4911,10 @@
       <c r="C34" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
@@ -4922,14 +4923,14 @@
       <c r="C35" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="42">
         <v>26</v>
       </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="55" t="s">
+      <c r="E35" s="43"/>
+      <c r="F35" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="G35" s="56"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
@@ -4938,14 +4939,14 @@
       <c r="C36" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="42">
         <v>1</v>
       </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="55" t="s">
+      <c r="E36" s="43"/>
+      <c r="F36" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
@@ -4954,14 +4955,14 @@
       <c r="C37" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="42">
         <v>2</v>
       </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="55" t="s">
+      <c r="E37" s="43"/>
+      <c r="F37" s="42" t="s">
         <v>333</v>
       </c>
-      <c r="G37" s="56"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
@@ -4970,14 +4971,14 @@
       <c r="C38" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="55" t="s">
+      <c r="E38" s="43"/>
+      <c r="F38" s="42" t="s">
         <v>334</v>
       </c>
-      <c r="G38" s="56"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
@@ -4986,34 +4987,34 @@
       <c r="C39" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="55" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="G39" s="56"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" ht="225.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
@@ -5022,37 +5023,37 @@
       <c r="B43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-      <c r="G43" s="48"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="54"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
@@ -5075,14 +5076,14 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
@@ -5135,32 +5136,32 @@
       <c r="G50" s="5"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
@@ -5169,14 +5170,14 @@
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27" t="s">
+      <c r="E54" s="29"/>
+      <c r="F54" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G54" s="27"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
@@ -5185,14 +5186,14 @@
       <c r="C55" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="28"/>
-      <c r="F55" s="36" t="s">
+      <c r="E55" s="36"/>
+      <c r="F55" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G55" s="36"/>
+      <c r="G55" s="31"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" s="23" t="s">
@@ -5201,14 +5202,14 @@
       <c r="C56" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="s">
+      <c r="E56" s="39"/>
+      <c r="F56" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="G56" s="35"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B57" s="23" t="s">
@@ -5217,14 +5218,14 @@
       <c r="C57" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34" t="s">
+      <c r="E57" s="39"/>
+      <c r="F57" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="G57" s="35"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="23" t="s">
@@ -5233,14 +5234,14 @@
       <c r="C58" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="75" t="s">
+      <c r="E58" s="39"/>
+      <c r="F58" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="G58" s="76"/>
+      <c r="G58" s="45"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="23" t="s">
@@ -5249,14 +5250,14 @@
       <c r="C59" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34" t="s">
+      <c r="E59" s="39"/>
+      <c r="F59" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="G59" s="35"/>
+      <c r="G59" s="41"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60" s="23" t="s">
@@ -5265,34 +5266,34 @@
       <c r="C60" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="38">
         <v>9425</v>
       </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34" t="s">
+      <c r="E60" s="39"/>
+      <c r="F60" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="G60" s="35"/>
+      <c r="G60" s="41"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
@@ -5301,37 +5302,37 @@
       <c r="B64" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="52" t="s">
         <v>287</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="42"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="54"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="30" t="s">
+      <c r="C66" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="3" t="s">
@@ -5354,14 +5355,14 @@
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="3" t="s">
@@ -5422,32 +5423,32 @@
       </c>
     </row>
     <row r="72" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="27" t="s">
+      <c r="B72" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
     </row>
     <row r="74" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="3" t="s">
@@ -5456,14 +5457,14 @@
       <c r="C75" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D75" s="27" t="s">
+      <c r="D75" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27" t="s">
+      <c r="E75" s="29"/>
+      <c r="F75" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G75" s="27"/>
+      <c r="G75" s="29"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="5" t="s">
@@ -5472,14 +5473,14 @@
       <c r="C76" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="28"/>
-      <c r="F76" s="36" t="s">
+      <c r="E76" s="36"/>
+      <c r="F76" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="G76" s="36"/>
+      <c r="G76" s="31"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="5" t="s">
@@ -5488,14 +5489,14 @@
       <c r="C77" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36" t="s">
+      <c r="E77" s="31"/>
+      <c r="F77" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="36"/>
+      <c r="G77" s="31"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="23" t="s">
@@ -5504,34 +5505,34 @@
       <c r="C78" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D78" s="34" t="s">
+      <c r="D78" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="35"/>
-      <c r="F78" s="34" t="s">
+      <c r="E78" s="41"/>
+      <c r="F78" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="G78" s="35"/>
+      <c r="G78" s="41"/>
     </row>
     <row r="79" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="27" t="s">
+      <c r="B79" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="2:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
@@ -5540,37 +5541,37 @@
       <c r="B82" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="42"/>
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="53"/>
+      <c r="G83" s="54"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B84" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="C84" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B85" s="3" t="s">
@@ -5593,14 +5594,14 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B86" s="27" t="s">
+      <c r="B86" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
@@ -5679,32 +5680,32 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B91" s="27" t="s">
+      <c r="B91" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="26"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="26"/>
-      <c r="F92" s="26"/>
-      <c r="G92" s="26"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B93" s="27" t="s">
+      <c r="B93" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B94" s="3" t="s">
@@ -5713,14 +5714,14 @@
       <c r="C94" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D94" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27" t="s">
+      <c r="E94" s="29"/>
+      <c r="F94" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="27"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" s="5" t="s">
@@ -5729,14 +5730,14 @@
       <c r="C95" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D95" s="28" t="s">
+      <c r="D95" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E95" s="28"/>
-      <c r="F95" s="36" t="s">
+      <c r="E95" s="36"/>
+      <c r="F95" s="31" t="s">
         <v>298</v>
       </c>
-      <c r="G95" s="36"/>
+      <c r="G95" s="31"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
@@ -5745,37 +5746,114 @@
       <c r="C96" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36" t="s">
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G96" s="36"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B97" s="27" t="s">
+      <c r="B97" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
     </row>
     <row r="98" spans="2:7" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
+      <c r="C98" s="35"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="B97:G97"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="D78:E78"/>
@@ -5792,83 +5870,6 @@
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5887,8 +5888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G120"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:G23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5921,37 +5922,37 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -5974,14 +5975,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
@@ -6148,34 +6149,34 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
     </row>
     <row r="19" spans="1:7" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
@@ -6184,14 +6185,14 @@
       <c r="C21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27" t="s">
+      <c r="E21" s="29"/>
+      <c r="F21" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -6200,14 +6201,14 @@
       <c r="C22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="28"/>
-      <c r="F22" s="36" t="s">
+      <c r="E22" s="36"/>
+      <c r="F22" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="G22" s="36"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="5" t="s">
@@ -6216,34 +6217,34 @@
       <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36" t="s">
+      <c r="E23" s="31"/>
+      <c r="F23" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="36"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
@@ -6252,37 +6253,37 @@
       <c r="B27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
@@ -6305,14 +6306,14 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
@@ -6371,32 +6372,32 @@
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
@@ -6405,14 +6406,14 @@
       <c r="C38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="27"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="5" t="s">
@@ -6421,14 +6422,14 @@
       <c r="C39" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="D39" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="36" t="s">
+      <c r="E39" s="59"/>
+      <c r="F39" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G39" s="36"/>
+      <c r="G39" s="31"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
@@ -6437,14 +6438,14 @@
       <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="51">
+      <c r="D40" s="58">
         <v>1</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="34" t="s">
+      <c r="E40" s="59"/>
+      <c r="F40" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="G40" s="35"/>
+      <c r="G40" s="41"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
@@ -6453,10 +6454,10 @@
       <c r="C41" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D41" s="53"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="54"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="57"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
@@ -6465,14 +6466,14 @@
       <c r="C42" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="53">
+      <c r="D42" s="56">
         <v>27</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55" t="s">
+      <c r="E42" s="57"/>
+      <c r="F42" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="56"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
@@ -6481,14 +6482,14 @@
       <c r="C43" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="53">
+      <c r="D43" s="56">
         <v>1</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="55" t="s">
+      <c r="E43" s="57"/>
+      <c r="F43" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
@@ -6497,14 +6498,14 @@
       <c r="C44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55" t="s">
+      <c r="E44" s="57"/>
+      <c r="F44" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="43"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
@@ -6513,14 +6514,14 @@
       <c r="C45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="56">
         <v>10000</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55" t="s">
+      <c r="E45" s="57"/>
+      <c r="F45" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="43"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
@@ -6529,14 +6530,14 @@
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="53">
+      <c r="D46" s="56">
         <v>1000</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55" t="s">
+      <c r="E46" s="57"/>
+      <c r="F46" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="56"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
@@ -6545,14 +6546,14 @@
       <c r="C47" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="53" t="s">
+      <c r="D47" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55" t="s">
+      <c r="E47" s="57"/>
+      <c r="F47" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="56"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
@@ -6561,14 +6562,14 @@
       <c r="C48" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="53" t="s">
+      <c r="D48" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="54"/>
-      <c r="F48" s="55" t="s">
+      <c r="E48" s="57"/>
+      <c r="F48" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="56"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
@@ -6577,14 +6578,14 @@
       <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="54"/>
-      <c r="F49" s="55" t="s">
+      <c r="E49" s="57"/>
+      <c r="F49" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="G49" s="56"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
@@ -6593,14 +6594,14 @@
       <c r="C50" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="53" t="s">
+      <c r="D50" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="E50" s="54"/>
-      <c r="F50" s="55" t="s">
+      <c r="E50" s="57"/>
+      <c r="F50" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="G50" s="56"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
@@ -6609,14 +6610,14 @@
       <c r="C51" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="53">
+      <c r="D51" s="56">
         <v>15</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55" t="s">
+      <c r="E51" s="57"/>
+      <c r="F51" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="56"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
@@ -6625,14 +6626,14 @@
       <c r="C52" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="53" t="s">
+      <c r="D52" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="E52" s="54"/>
-      <c r="F52" s="55" t="s">
+      <c r="E52" s="57"/>
+      <c r="F52" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="G52" s="56"/>
+      <c r="G52" s="43"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
@@ -6641,14 +6642,14 @@
       <c r="C53" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="53">
+      <c r="D53" s="56">
         <v>7</v>
       </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55" t="s">
+      <c r="E53" s="57"/>
+      <c r="F53" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="56"/>
+      <c r="G53" s="43"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
@@ -6657,14 +6658,14 @@
       <c r="C54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55" t="s">
+      <c r="E54" s="57"/>
+      <c r="F54" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="56"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B55" s="5" t="s">
@@ -6673,14 +6674,14 @@
       <c r="C55" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="51">
+      <c r="D55" s="58">
         <v>2</v>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="34" t="s">
+      <c r="E55" s="59"/>
+      <c r="F55" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="G55" s="35"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B56" s="5" t="s">
@@ -6689,14 +6690,14 @@
       <c r="C56" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="51">
+      <c r="D56" s="58">
         <v>1</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="34" t="s">
+      <c r="E56" s="59"/>
+      <c r="F56" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G56" s="35"/>
+      <c r="G56" s="41"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
@@ -6705,34 +6706,34 @@
       <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="34" t="s">
+      <c r="E57" s="59"/>
+      <c r="F57" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G57" s="35"/>
+      <c r="G57" s="41"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
@@ -6741,37 +6742,37 @@
       <c r="B61" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B62" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B63" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C63" s="30" t="s">
+      <c r="C63" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B64" s="3" t="s">
@@ -6794,14 +6795,14 @@
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="39"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="28"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
@@ -6830,10 +6831,10 @@
       <c r="C67" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="49">
+      <c r="D67" s="61">
         <v>27</v>
       </c>
-      <c r="E67" s="50"/>
+      <c r="E67" s="62"/>
       <c r="F67" s="15"/>
       <c r="G67" s="5" t="s">
         <v>117</v>
@@ -6984,34 +6985,34 @@
       </c>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
     </row>
     <row r="77" spans="2:7" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="26" t="s">
+      <c r="B77" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="3" t="s">
@@ -7020,14 +7021,14 @@
       <c r="C79" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D79" s="27" t="s">
+      <c r="D79" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27" t="s">
+      <c r="E79" s="29"/>
+      <c r="F79" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G79" s="27"/>
+      <c r="G79" s="29"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="5" t="s">
@@ -7036,14 +7037,14 @@
       <c r="C80" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E80" s="28"/>
-      <c r="F80" s="36" t="s">
+      <c r="E80" s="36"/>
+      <c r="F80" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="G80" s="36"/>
+      <c r="G80" s="31"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B81" s="5" t="s">
@@ -7052,34 +7053,34 @@
       <c r="C81" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36" t="s">
+      <c r="E81" s="31"/>
+      <c r="F81" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G81" s="36"/>
+      <c r="G81" s="31"/>
     </row>
     <row r="82" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
     </row>
     <row r="83" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
@@ -7088,37 +7089,37 @@
       <c r="B85" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B86" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="D86" s="29"/>
-      <c r="E86" s="29"/>
-      <c r="F86" s="29"/>
-      <c r="G86" s="29"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="30" t="s">
+      <c r="C87" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B88" s="3" t="s">
@@ -7141,14 +7142,14 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="3" t="s">
@@ -7189,32 +7190,32 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B92" s="27" t="s">
+      <c r="B92" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
     </row>
     <row r="93" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="26"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="26"/>
-      <c r="F93" s="26"/>
-      <c r="G93" s="26"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B94" s="27" t="s">
+      <c r="B94" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B95" s="3" t="s">
@@ -7223,14 +7224,14 @@
       <c r="C95" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D95" s="27" t="s">
+      <c r="D95" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27" t="s">
+      <c r="E95" s="29"/>
+      <c r="F95" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G95" s="27"/>
+      <c r="G95" s="29"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B96" s="5" t="s">
@@ -7239,14 +7240,14 @@
       <c r="C96" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="36" t="s">
+      <c r="E96" s="36"/>
+      <c r="F96" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="G96" s="36"/>
+      <c r="G96" s="31"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B97" s="5" t="s">
@@ -7255,34 +7256,34 @@
       <c r="C97" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="36" t="s">
+      <c r="D97" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36" t="s">
+      <c r="E97" s="31"/>
+      <c r="F97" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G97" s="36"/>
+      <c r="G97" s="31"/>
     </row>
     <row r="98" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="27" t="s">
+      <c r="B98" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
     </row>
     <row r="99" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="26" t="s">
+      <c r="B99" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35"/>
+      <c r="G99" s="35"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
@@ -7291,37 +7292,37 @@
       <c r="B101" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C101" s="24" t="s">
+      <c r="C101" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C102" s="29" t="s">
+      <c r="C102" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="29"/>
-      <c r="E102" s="29"/>
-      <c r="F102" s="29"/>
-      <c r="G102" s="29"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C103" s="30" t="s">
+      <c r="C103" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="34"/>
+      <c r="F103" s="34"/>
+      <c r="G103" s="34"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
@@ -7344,14 +7345,14 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B105" s="27" t="s">
+      <c r="B105" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
@@ -7392,32 +7393,32 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B108" s="27" t="s">
+      <c r="B108" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
     </row>
     <row r="110" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="27" t="s">
+      <c r="B110" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
@@ -7426,14 +7427,14 @@
       <c r="C111" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D111" s="27" t="s">
+      <c r="D111" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27" t="s">
+      <c r="E111" s="29"/>
+      <c r="F111" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G111" s="27"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B112" s="5" t="s">
@@ -7442,14 +7443,14 @@
       <c r="C112" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E112" s="28"/>
-      <c r="F112" s="36" t="s">
+      <c r="E112" s="36"/>
+      <c r="F112" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="G112" s="36"/>
+      <c r="G112" s="31"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
@@ -7458,10 +7459,10 @@
       <c r="C113" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D113" s="55"/>
-      <c r="E113" s="56"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="56"/>
+      <c r="D113" s="42"/>
+      <c r="E113" s="43"/>
+      <c r="F113" s="42"/>
+      <c r="G113" s="43"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
@@ -7470,12 +7471,12 @@
       <c r="C114" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="55">
+      <c r="D114" s="42">
         <v>1</v>
       </c>
-      <c r="E114" s="56"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="56"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="42"/>
+      <c r="G114" s="43"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
@@ -7484,12 +7485,12 @@
       <c r="C115" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="E115" s="56"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="56"/>
+      <c r="E115" s="43"/>
+      <c r="F115" s="42"/>
+      <c r="G115" s="43"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="5" t="s">
@@ -7498,14 +7499,14 @@
       <c r="C116" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E116" s="28"/>
-      <c r="F116" s="36" t="s">
+      <c r="E116" s="36"/>
+      <c r="F116" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="G116" s="36"/>
+      <c r="G116" s="31"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="5" t="s">
@@ -7514,14 +7515,14 @@
       <c r="C117" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E117" s="33"/>
-      <c r="F117" s="36" t="s">
+      <c r="E117" s="39"/>
+      <c r="F117" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="G117" s="36"/>
+      <c r="G117" s="31"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="5" t="s">
@@ -7530,46 +7531,108 @@
       <c r="C118" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D118" s="36" t="s">
+      <c r="D118" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="E118" s="36"/>
-      <c r="F118" s="36" t="s">
+      <c r="E118" s="31"/>
+      <c r="F118" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G118" s="36"/>
+      <c r="G118" s="31"/>
     </row>
     <row r="119" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="27" t="s">
+      <c r="B119" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
     </row>
     <row r="120" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="26" t="s">
+      <c r="B120" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F113:G113"/>
@@ -7594,49 +7657,19 @@
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="F117:G117"/>
     <mergeCell ref="C87:G87"/>
     <mergeCell ref="B89:G89"/>
     <mergeCell ref="B92:G92"/>
@@ -7648,38 +7681,6 @@
     <mergeCell ref="B82:G82"/>
     <mergeCell ref="B83:G83"/>
     <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B8:G8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -7696,10 +7697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G85"/>
+  <dimension ref="A2:G75"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7712,46 +7713,57 @@
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
@@ -7764,1239 +7776,1123 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>33</v>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+    </row>
+    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="28"/>
+      <c r="F14" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="38">
+        <v>27</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="38">
         <v>1</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
-        <v>1</v>
+      <c r="B17" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>115</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="38">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B19" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="60"/>
-    </row>
-    <row r="23" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="37" t="s">
-        <v>11</v>
+      <c r="D24" s="38">
+        <v>15</v>
       </c>
       <c r="E24" s="39"/>
-      <c r="F24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="39"/>
+      <c r="F24" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="41"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="32">
-        <v>27</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="35"/>
+        <v>13</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="41"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="32">
-        <v>1</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="35"/>
+      <c r="D26" s="38">
+        <v>7</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="41"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="35"/>
+      <c r="D27" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="32">
-        <v>10000</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="65">
+        <v>10</v>
+      </c>
+      <c r="E29" s="66"/>
+      <c r="F29" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="32">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="65">
+        <v>27</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="65" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="66"/>
+      <c r="F31" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="65">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="66"/>
+      <c r="F32" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D33" s="65" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="66"/>
+      <c r="F33" s="42" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="65">
+        <v>2</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D35" s="65" t="s">
+        <v>221</v>
+      </c>
+      <c r="E35" s="66"/>
+      <c r="F35" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="63">
+        <v>25</v>
+      </c>
+      <c r="E37" s="64"/>
+      <c r="F37" s="67" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="68"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D38" s="63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" s="64"/>
+      <c r="F38" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="68"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="32">
-        <v>15</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D39" s="63">
+        <v>10</v>
+      </c>
+      <c r="E39" s="64"/>
+      <c r="F39" s="67" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" s="68"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="63">
+        <v>1</v>
+      </c>
+      <c r="E40" s="64"/>
+      <c r="F40" s="67" t="s">
+        <v>234</v>
+      </c>
+      <c r="G40" s="68"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="63">
+        <v>1</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="67" t="s">
+        <v>235</v>
+      </c>
+      <c r="G41" s="68"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="72"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="69">
+        <v>57</v>
+      </c>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="72"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="69">
+        <v>25</v>
+      </c>
+      <c r="E44" s="70"/>
+      <c r="F44" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="G44" s="72"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="70"/>
+      <c r="F45" s="71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G45" s="72"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="69">
+        <v>0</v>
+      </c>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="72"/>
+    </row>
+    <row r="47" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="2:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="30" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>27</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="32">
-        <v>7</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <v>7100</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="12" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
+        <v>2</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="72">
-        <v>10</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="G39" s="56"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="72">
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12">
+        <v>1</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12">
+        <v>1</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22">
+        <v>0</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="27"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="28"/>
+    </row>
+    <row r="69" spans="2:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" s="74"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="75"/>
+    </row>
+    <row r="70" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="28"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="28"/>
+      <c r="F71" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="28"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E72" s="36"/>
+      <c r="F72" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="31"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="G40" s="56"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="C73" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="55" t="s">
-        <v>242</v>
-      </c>
-      <c r="G41" s="56"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="72">
-        <v>7100</v>
-      </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" s="56"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="55" t="s">
-        <v>246</v>
-      </c>
-      <c r="G43" s="56"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="72">
-        <v>2</v>
-      </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="56"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="55" t="s">
-        <v>248</v>
-      </c>
-      <c r="G45" s="56"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="68">
-        <v>25</v>
-      </c>
-      <c r="E47" s="69"/>
-      <c r="F47" s="70" t="s">
-        <v>238</v>
-      </c>
-      <c r="G47" s="71"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="E48" s="69"/>
-      <c r="F48" s="70" t="s">
-        <v>241</v>
-      </c>
-      <c r="G48" s="71"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" s="68">
-        <v>10</v>
-      </c>
-      <c r="E49" s="69"/>
-      <c r="F49" s="70" t="s">
-        <v>242</v>
-      </c>
-      <c r="G49" s="71"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="68">
-        <v>1</v>
-      </c>
-      <c r="E50" s="69"/>
-      <c r="F50" s="70" t="s">
-        <v>234</v>
-      </c>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="68">
-        <v>1</v>
-      </c>
-      <c r="E51" s="69"/>
-      <c r="F51" s="70" t="s">
-        <v>235</v>
-      </c>
-      <c r="G51" s="71"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="64">
-        <v>57</v>
-      </c>
-      <c r="E53" s="65"/>
-      <c r="F53" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="64">
-        <v>25</v>
-      </c>
-      <c r="E54" s="65"/>
-      <c r="F54" s="66" t="s">
-        <v>238</v>
-      </c>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="D55" s="64" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" s="65"/>
-      <c r="F55" s="66" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" s="67"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="64">
-        <v>0</v>
-      </c>
-      <c r="E56" s="65"/>
-      <c r="F56" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="G56" s="67"/>
-    </row>
-    <row r="57" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="27" t="s">
+      <c r="D73" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="E73" s="41"/>
+      <c r="F73" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="31"/>
+    </row>
+    <row r="74" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7" ht="408.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="48"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" s="29"/>
-      <c r="E61" s="29"/>
-      <c r="F61" s="29"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="39"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5">
-        <v>27</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5">
-        <v>7100</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5">
-        <v>2</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B72" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B73" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12">
-        <v>1</v>
-      </c>
-      <c r="F73" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B74" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B75" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B76" s="22" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="F76" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B77" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22">
-        <v>0</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="39"/>
-    </row>
-    <row r="79" spans="2:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="61" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="62"/>
-      <c r="D79" s="62"/>
-      <c r="E79" s="62"/>
-      <c r="F79" s="62"/>
-      <c r="G79" s="63"/>
-    </row>
-    <row r="80" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="39"/>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="39"/>
-      <c r="F81" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="39"/>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E82" s="28"/>
-      <c r="F82" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="G82" s="36"/>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B83" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="36"/>
-    </row>
-    <row r="84" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="39"/>
-    </row>
-    <row r="85" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="26" t="s">
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="28"/>
+    </row>
+    <row r="75" spans="2:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="30" t="s">
         <v>265</v>
       </c>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="88">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D40:E40"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://[]"/>
-    <hyperlink ref="C15" r:id="rId2" display="http://[]"/>
-    <hyperlink ref="C61" r:id="rId3" display="http://[]"/>
+    <hyperlink ref="C51" r:id="rId2" display="http://[]"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G71"/>
+  <dimension ref="A2:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:G24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9009,46 +8905,57 @@
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="C5" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="C6" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
@@ -9061,990 +8968,871 @@
         <v>3</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="27" t="s">
-        <v>33</v>
+      <c r="B8" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25">
+        <v>44743</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25">
+        <v>44774</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" s="38">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="48"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="38">
         <v>1</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="C20" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="77"/>
-      <c r="E20" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D20" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G20" s="41"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78">
-        <v>44743</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G21" s="41"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78">
-        <v>44774</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G22" s="41"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="23" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G23" s="41"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="41"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C36" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="9">
+      <c r="D36" s="7"/>
+      <c r="E36" s="7">
         <v>1</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="G23" s="23"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B24" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="60"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B28" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="32">
-        <v>1</v>
-      </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34" t="s">
+      <c r="F36" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D29" s="32">
-        <v>1</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B30" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D31" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D33" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="G33" s="35"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D35" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="27" t="s">
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="75"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D41" s="38">
+        <v>1</v>
+      </c>
+      <c r="E41" s="39"/>
+      <c r="F41" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="G41" s="41"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D42" s="38">
+        <v>1</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G42" s="41"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E43" s="39"/>
+      <c r="F43" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" s="41"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G44" s="41"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="39"/>
+      <c r="F45" s="40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G45" s="41"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="39"/>
+      <c r="F46" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G46" s="41"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" s="41"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="39"/>
+      <c r="F48" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="G48" s="41"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="E49" s="39"/>
+      <c r="F49" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" s="41"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="D50" s="38">
+        <v>74000</v>
+      </c>
+      <c r="E50" s="39"/>
+      <c r="F50" s="40" t="s">
+        <v>387</v>
+      </c>
+      <c r="G50" s="41"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D51" s="65"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="43"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D52" s="65">
+        <v>1</v>
+      </c>
+      <c r="E52" s="66"/>
+      <c r="F52" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="G52" s="43"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="66"/>
+      <c r="F53" s="42" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" s="43"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="65">
+        <v>10000</v>
+      </c>
+      <c r="E54" s="66"/>
+      <c r="F54" s="42" t="s">
+        <v>390</v>
+      </c>
+      <c r="G54" s="43"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D55" s="65">
         <v>2</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="48"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B43" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B44" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="39"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="E55" s="66"/>
+      <c r="F55" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="43"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C56" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="37" t="s">
+      <c r="D56" s="65">
+        <v>26000</v>
+      </c>
+      <c r="E56" s="66"/>
+      <c r="F56" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="G56" s="43"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="68"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E58" s="64"/>
+      <c r="F58" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="G58" s="68"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" s="63">
+        <v>1000</v>
+      </c>
+      <c r="E59" s="64"/>
+      <c r="F59" s="67" t="s">
+        <v>383</v>
+      </c>
+      <c r="G59" s="68"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="63"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B49" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="39"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="E50" s="39"/>
-      <c r="F50" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="39"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B51" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D51" s="32">
-        <v>1</v>
-      </c>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="G51" s="35"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B52" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D52" s="32">
-        <v>1</v>
-      </c>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="G52" s="35"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B53" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>359</v>
-      </c>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="G53" s="35"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B54" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="E54" s="33"/>
-      <c r="F54" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="G54" s="35"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B55" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>357</v>
-      </c>
-      <c r="E55" s="33"/>
-      <c r="F55" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G55" s="35"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B56" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="G56" s="35"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B57" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>355</v>
-      </c>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="G57" s="35"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B58" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="E58" s="33"/>
-      <c r="F58" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="G58" s="35"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B59" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="D59" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="G59" s="35"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B60" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="D60" s="32">
-        <v>74000</v>
-      </c>
-      <c r="E60" s="33"/>
-      <c r="F60" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="G60" s="35"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B61" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="D61" s="72"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B62" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D62" s="72">
-        <v>1</v>
-      </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="55" t="s">
-        <v>388</v>
-      </c>
-      <c r="G62" s="56"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B63" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="D63" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="55" t="s">
-        <v>389</v>
-      </c>
-      <c r="G63" s="56"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B64" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D64" s="72">
-        <v>10000</v>
-      </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="55" t="s">
-        <v>390</v>
-      </c>
-      <c r="G64" s="56"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B65" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D65" s="72">
-        <v>2</v>
-      </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="55" t="s">
-        <v>391</v>
-      </c>
-      <c r="G65" s="56"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B66" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="D66" s="72">
-        <v>26000</v>
-      </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="55" t="s">
-        <v>392</v>
-      </c>
-      <c r="G66" s="56"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="69"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="D68" s="68" t="s">
-        <v>382</v>
-      </c>
-      <c r="E68" s="69"/>
-      <c r="F68" s="70" t="s">
-        <v>384</v>
-      </c>
-      <c r="G68" s="71"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B69" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D69" s="68">
-        <v>1000</v>
-      </c>
-      <c r="E69" s="69"/>
-      <c r="F69" s="70" t="s">
-        <v>383</v>
-      </c>
-      <c r="G69" s="71"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B70" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="39"/>
-    </row>
-    <row r="71" spans="2:7" ht="397.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="61" t="s">
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="28"/>
+    </row>
+    <row r="61" spans="2:7" ht="397.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="63"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="74"/>
+      <c r="E61" s="74"/>
+      <c r="F61" s="74"/>
+      <c r="G61" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="B10:G10"/>
+  <mergeCells count="78">
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="http://[]"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>